--- a/testing.xlsx
+++ b/testing.xlsx
@@ -367,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="upload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,30 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>student number</t>
   </si>
   <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>middle name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>gatan</t>
-  </si>
-  <si>
-    <t>babaran</t>
-  </si>
-  <si>
-    <t>denver</t>
+    <t>score</t>
   </si>
 </sst>
 </file>
@@ -365,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,46 +361,84 @@
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>123456789</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100000001</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>223456789</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>100000002</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100000003</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>100000004</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>100000005</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>100000006</v>
+      </c>
+      <c r="B7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>100000007</v>
+      </c>
+      <c r="B8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100000008</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100000009</v>
+      </c>
+      <c r="B10">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -29,7 +29,7 @@
     <t>student number</t>
   </si>
   <si>
-    <t>score</t>
+    <t>scoress</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,9 +421,6 @@
       <c r="A8">
         <v>100000007</v>
       </c>
-      <c r="B8">
-        <v>78</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -29,7 +29,7 @@
     <t>student number</t>
   </si>
   <si>
-    <t>scoress</t>
+    <t>scores</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,6 +421,9 @@
       <c r="A8">
         <v>100000007</v>
       </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="upload" sheetId="1" r:id="rId1"/>
+    <sheet name="V21" sheetId="1" r:id="rId1"/>
+    <sheet name="V22" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -349,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,4 +445,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15984" windowHeight="4704"/>
   </bookViews>
   <sheets>
     <sheet name="V21" sheetId="1" r:id="rId1"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,15 +372,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100000001</v>
+        <v>201511438</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>100000002</v>
+        <v>201511281</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>100000003</v>
+        <v>201410679</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>100000004</v>
+        <v>201411491</v>
       </c>
       <c r="B5">
         <v>42</v>
@@ -404,42 +404,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>100000005</v>
+        <v>201411491</v>
       </c>
       <c r="B6">
         <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>100000006</v>
-      </c>
-      <c r="B7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>100000007</v>
-      </c>
-      <c r="B8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>100000008</v>
-      </c>
-      <c r="B9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100000009</v>
-      </c>
-      <c r="B10">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="V21" sheetId="1" r:id="rId1"/>
-    <sheet name="V22" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -413,18 +412,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>